--- a/tdse-tp1_00-problem_approach.xlsx
+++ b/tdse-tp1_00-problem_approach.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="30">
   <si>
     <t>Sensor Statechart - State Transition Table</t>
   </si>
@@ -75,24 +75,46 @@
     <t>System Statechart - State Transition Table</t>
   </si>
   <si>
+    <t>ST_SYS_BARRIER_UP</t>
+  </si>
+  <si>
+    <t>EV_SYS_CAR_IN</t>
+  </si>
+  <si>
+    <t>EV_SYS_CAR_PASSING</t>
+  </si>
+  <si>
+    <t>EV_SYS_CAR_OUT</t>
+  </si>
+  <si>
+    <t>ST_SYS_BARRIER_DOWN</t>
+  </si>
+  <si>
+    <t>lower_barrier</t>
+  </si>
+  <si>
+    <t>raise_barrier</t>
+  </si>
+  <si>
     <t>Actuator Statechart - State Transition Table</t>
+  </si>
+  <si>
+    <t>ST_ACT_OPEN</t>
+  </si>
+  <si>
+    <t>ST_ACT_CLOSED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
     </font>
     <font>
       <b/>
@@ -112,6 +134,17 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -121,7 +154,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border/>
     <border>
       <left style="thick">
@@ -307,6 +340,17 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
       <bottom style="thick">
@@ -359,79 +403,91 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,36 +499,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6115050" cy="1400175"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -688,222 +715,409 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="0.88"/>
-    <col customWidth="1" min="2" max="4" width="20.75"/>
-    <col customWidth="1" min="5" max="5" width="22.75"/>
+    <col customWidth="1" min="2" max="2" width="25.13"/>
+    <col customWidth="1" min="3" max="3" width="23.38"/>
+    <col customWidth="1" min="4" max="4" width="20.75"/>
+    <col customWidth="1" min="5" max="5" width="26.63"/>
     <col customWidth="1" min="6" max="6" width="27.63"/>
     <col customWidth="1" min="7" max="26" width="10.63"/>
   </cols>
   <sheetData>
-    <row r="1" ht="4.5" customHeight="1"/>
-    <row r="2" ht="120.0" customHeight="1">
-      <c r="B2" s="1"/>
+    <row r="1" ht="22.5" customHeight="1">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
     </row>
-    <row r="3" ht="24.0" customHeight="1">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" ht="24.0" customHeight="1">
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>5</v>
-      </c>
+    <row r="3" ht="22.5" customHeight="1">
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="10"/>
     </row>
-    <row r="5" ht="24.0" customHeight="1">
-      <c r="B5" s="8" t="s">
+    <row r="4" ht="22.5" customHeight="1">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" customHeight="1">
+      <c r="B5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="22.5" customHeight="1">
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1">
+      <c r="B7" s="17"/>
+      <c r="C7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="22.5" customHeight="1">
+      <c r="B8" s="11"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="22.5" customHeight="1">
+      <c r="B9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1">
+      <c r="B11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="22.5" customHeight="1">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F12" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" ht="24.0" customHeight="1">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13" t="s">
+    <row r="13" ht="22.5" customHeight="1">
+      <c r="B13" s="17"/>
+      <c r="C13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
+      <c r="D13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>10</v>
+      <c r="F13" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="7" ht="24.0" customHeight="1">
-      <c r="B7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="24.0" customHeight="1">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="13" t="s">
+    <row r="14" ht="22.5" customHeight="1">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" ht="24.0" customHeight="1">
-      <c r="B9" s="18"/>
-      <c r="C9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" ht="24.0" customHeight="1">
-      <c r="B10" s="12"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="E14" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" ht="24.0" customHeight="1">
-      <c r="B11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" ht="24.0" customHeight="1">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" ht="24.0" customHeight="1">
-      <c r="B13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" ht="24.0" customHeight="1">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" ht="24.0" customHeight="1">
-      <c r="B15" s="18"/>
-      <c r="C15" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>12</v>
-      </c>
+      <c r="F14" s="23"/>
     </row>
     <row r="16" ht="24.0" customHeight="1">
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="24"/>
+      <c r="B16" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="17" ht="19.5" customHeight="1">
+      <c r="B17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="B18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="B19" s="17"/>
+      <c r="C19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="B21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="B22" s="17"/>
+      <c r="C22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="B23" s="20"/>
+      <c r="C23" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="23"/>
+    </row>
+    <row r="24" ht="18.75" customHeight="1"/>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="B25" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="B26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="B27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="B28" s="17"/>
+      <c r="C28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="26"/>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="B29" s="11"/>
+      <c r="C29" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="B30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="B31" s="17"/>
+      <c r="C31" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="B32" s="20"/>
+      <c r="C32" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="23"/>
+    </row>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1860,30 +2074,23 @@
     <row r="986" ht="14.25" customHeight="1"/>
     <row r="987" ht="14.25" customHeight="1"/>
     <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
+    <mergeCell ref="B11:B14"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B5:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B25:F25"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -1909,35 +2116,35 @@
   <sheetData>
     <row r="1" ht="4.5" customHeight="1"/>
     <row r="2" ht="120.0" customHeight="1">
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" ht="30.0" customHeight="1">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" ht="30.0" customHeight="1">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="33" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2966,35 +3173,35 @@
   <sheetData>
     <row r="1" ht="4.5" customHeight="1"/>
     <row r="2" ht="120.0" customHeight="1">
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" ht="30.0" customHeight="1">
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" ht="30.0" customHeight="1">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="33" t="s">
         <v>5</v>
       </c>
     </row>
